--- a/Funkeln_schmuck/Assets/DataTable/DataTable_pre.xlsx
+++ b/Funkeln_schmuck/Assets/DataTable/DataTable_pre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln_schmuck\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/2/Funkeln_schmuck/Assets/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F342511-2EEA-4ADA-8CF9-4C42F32A05B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7385433F-A095-0E4A-A474-0D59C94954BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -65,10 +65,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>CharaName</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Attack</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -89,10 +85,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>skillGage</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>GageHeal</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -109,10 +101,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Critical</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>CriticalHit</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -229,6 +217,18 @@
   <si>
     <t>SP2</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CharacterName</t>
+  </si>
+  <si>
+    <t>skillGauge</t>
+  </si>
+  <si>
+    <t>GaugeHealing</t>
+  </si>
+  <si>
+    <t>CriticalDMG</t>
   </si>
 </sst>
 </file>
@@ -236,13 +236,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -261,7 +261,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -564,15 +564,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -588,7 +588,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -886,66 +886,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B50CB-D018-479A-8735-FB81A84DE7B7}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" ht="16" thickBot="1">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
@@ -962,7 +962,7 @@
         <v>250</v>
       </c>
       <c r="F2" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G2" s="6">
         <v>100</v>
@@ -992,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="29" thickBot="1">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16" thickBot="1">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16" thickBot="1">
       <c r="A5" s="4">
         <v>101000</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16" thickBot="1">
       <c r="A6" s="4">
         <v>102000</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="16" thickBot="1">
       <c r="A7" s="4">
         <v>103000</v>
       </c>
@@ -1242,64 +1242,64 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" ht="16" thickBot="1">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6">
         <v>3000</v>
@@ -1341,12 +1341,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="16" thickBot="1">
       <c r="A3" s="13">
         <v>104000</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="15">
         <v>50000</v>
@@ -1403,67 +1403,67 @@
       <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" customWidth="1"/>
-    <col min="8" max="8" width="17.296875" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" customWidth="1"/>
-    <col min="10" max="10" width="13.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>45</v>
-      </c>
       <c r="J1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="L1" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="21">
         <v>25</v>
@@ -1475,25 +1475,25 @@
         <v>10</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="21">
         <v>25</v>
@@ -1505,28 +1505,28 @@
         <v>10</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" thickBot="1">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" s="20">
         <v>20</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F4" s="21">
         <v>25</v>
@@ -1558,66 +1558,66 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.296875" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="17.8984375" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>45</v>
-      </c>
       <c r="J1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="L1" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="21">
         <v>25</v>
@@ -1626,7 +1626,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H2" s="21">
         <v>50</v>
@@ -1648,83 +1648,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2476FD5D-BD55-484D-8942-0E88BFABDEEE}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.3984375" customWidth="1"/>
-    <col min="8" max="8" width="12.796875" customWidth="1"/>
-    <col min="9" max="10" width="15.09765625" customWidth="1"/>
-    <col min="11" max="11" width="11.59765625" customWidth="1"/>
-    <col min="12" max="12" width="10.69921875" customWidth="1"/>
-    <col min="13" max="13" width="10.296875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="10" width="15.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="31" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="J1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16" thickBot="1">
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="E2" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16" thickBot="1">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" thickBot="1">
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
       <c r="E4" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1741,63 +1741,63 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="11.19921875" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="15.8984375" customWidth="1"/>
-    <col min="15" max="15" width="16.8984375" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>45</v>
-      </c>
       <c r="J1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16" thickBot="1">
+      <c r="B2" t="s">
         <v>49</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>52</v>
       </c>
       <c r="C2" s="27">
         <v>50</v>
@@ -1814,9 +1814,9 @@
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="B3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27">
@@ -1833,7 +1833,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13">
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -1845,7 +1845,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13">
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -1857,7 +1857,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13">
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -1869,7 +1869,7 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13">
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -1881,7 +1881,7 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13">
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -1893,7 +1893,7 @@
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13">
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -1905,7 +1905,7 @@
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13">
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -1917,7 +1917,7 @@
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13">
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -1929,7 +1929,7 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13">
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -1941,7 +1941,7 @@
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13">
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -1953,7 +1953,7 @@
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13">
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -1965,7 +1965,7 @@
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13">
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -1977,7 +1977,7 @@
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13">
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -1989,7 +1989,7 @@
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:12">
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -2001,7 +2001,7 @@
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:12">
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -2013,7 +2013,7 @@
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:12">
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
@@ -2025,7 +2025,7 @@
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:12">
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -2037,7 +2037,7 @@
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:12">
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -2049,7 +2049,7 @@
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:12">
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -2061,7 +2061,7 @@
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:12">
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
@@ -2073,7 +2073,7 @@
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:12">
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -2085,7 +2085,7 @@
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:12">
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -2097,7 +2097,7 @@
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:12">
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
@@ -2109,7 +2109,7 @@
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:12">
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
@@ -2121,7 +2121,7 @@
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:12">
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
@@ -2133,7 +2133,7 @@
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:12">
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
@@ -2145,7 +2145,7 @@
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:12">
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -2157,7 +2157,7 @@
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:12">
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
